--- a/medicine/Sexualité et sexologie/Folsom_Street_Fair/Folsom_Street_Fair.xlsx
+++ b/medicine/Sexualité et sexologie/Folsom_Street_Fair/Folsom_Street_Fair.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Folsom Street Fair est une grande fête des fétichistes du cuir qui se déroule chaque année le dernier dimanche de septembre à San Francisco et qui réunit les différentes orientations sexuelles.
@@ -513,9 +525,11 @@
           <t>Folsom Street Fair ou les folles journées de San Francisco</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet événement a été couvert par un documentaire français de Daniel Chabannes en 1996 intitulé Folsom Street Fair ou les folles journées de San Francisco[1]. Il fut interdit aux moins de seize ans en France[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet événement a été couvert par un documentaire français de Daniel Chabannes en 1996 intitulé Folsom Street Fair ou les folles journées de San Francisco. Il fut interdit aux moins de seize ans en France.
 </t>
         </is>
       </c>
